--- a/Assets/Configuration/Designer.xlsx
+++ b/Assets/Configuration/Designer.xlsx
@@ -2,33 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
     <workbookView windowWidth="13185" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>Global</t>
+    <t xml:space="preserve">Global</t>
   </si>
   <si>
-    <t>value</t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t>EntryPoint</t>
+    <t xml:space="preserve">EntryPoint</t>
   </si>
   <si>
-    <t>http://test</t>
+    <t xml:space="preserve">http://test</t>
   </si>
   <si>
-    <t>Port</t>
+    <t xml:space="preserve">Port</t>
   </si>
 </sst>
 </file>
@@ -78,7 +78,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -86,7 +86,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -496,156 +496,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,8 +702,8 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Assets/Configuration/Designer.xlsx
+++ b/Assets/Configuration/Designer.xlsx
@@ -2,33 +2,68 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13185" windowHeight="9105"/>
+    <workbookView windowWidth="13185" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterList" sheetId="2" r:id="rId2"/>
+    <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>EntryPoint</t>
+  </si>
+  <si>
+    <t>http://test</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>MomList</t>
+  </si>
+  <si>
+    <t>BabyList</t>
+  </si>
+  <si>
+    <t>EagleList</t>
+  </si>
+  <si>
+    <t>BlackBoss</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ExampleValue</t>
+  </si>
+  <si>
+    <t>Character Name</t>
+  </si>
+  <si>
+    <t>Character Description</t>
+  </si>
+  <si>
+    <t>黑团团</t>
   </si>
 </sst>
 </file>
@@ -78,7 +113,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -86,7 +121,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -496,156 +531,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,8 +737,8 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,11 +1000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1007,4 +1042,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Configuration/Designer.xlsx
+++ b/Assets/Configuration/Designer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13185" windowHeight="9105" activeTab="2"/>
+    <workbookView windowWidth="18000" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1134,6 +1134,7 @@
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
     <col min="6" max="6" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
